--- a/KẾ TOÁN - THÁI HẰNG 26/VĂN BẢN HÀNH CHÍNH/CHI TIÊU VĂN PHÒNG.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG 26/VĂN BẢN HÀNH CHÍNH/CHI TIÊU VĂN PHÒNG.xlsx
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,20 +91,40 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -118,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -195,21 +215,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -230,44 +235,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -276,74 +281,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -357,7 +294,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4D4D4D"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -639,53 +576,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -699,377 +636,332 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="7" t="s">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1085,8 +977,8 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <pageMargins left="0.22" right="0.14000000000000001" top="0.5" bottom="0.36" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.46" right="0.14000000000000001" top="0.5" bottom="0.36" header="0.28000000000000003" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
